--- a/model/compared_results/car_eval_4_result/car_eval_4_results.xlsx
+++ b/model/compared_results/car_eval_4_result/car_eval_4_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9983</v>
+        <v>0.9994</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9982</v>
+        <v>0.9994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9887</v>
+        <v>0.9961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9991</v>
+        <v>0.9997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9968</v>
+        <v>0.9989</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9795</v>
+        <v>0.9929</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9991</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9832</v>
+        <v>0.9861</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9826</v>
+        <v>0.9856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9096</v>
+        <v>0.9227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9912</v>
+        <v>0.9927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.9987</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9847</v>
+        <v>0.9666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8585</v>
+        <v>0.8761</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9913</v>
+        <v>0.9928</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>0.9996</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9859</v>
+        <v>0.986</v>
       </c>
       <c r="I4" t="n">
         <v>0.8443000000000001</v>
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9797</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.979</v>
+        <v>0.9796</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8909</v>
+        <v>0.8925999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9893999999999999</v>
+        <v>0.9897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9981</v>
+        <v>0.9989</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9554</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8302</v>
+        <v>0.8315</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9895</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9762999999999999</v>
+        <v>0.9792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9077</v>
+        <v>0.9385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.979</v>
+        <v>0.9808</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8643</v>
+        <v>0.8824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9406</v>
+        <v>0.9588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9944</v>
+        <v>0.9957</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8834</v>
+        <v>0.9014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8327</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9433</v>
+        <v>0.9596</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9572000000000001</v>
+        <v>0.9624</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9555</v>
+        <v>0.9609</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8101</v>
+        <v>0.8252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9775</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9991</v>
+        <v>0.9994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9728</v>
+        <v>0.9802</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7385</v>
+        <v>0.753</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9778</v>
+        <v>0.9805</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,176 @@
       </c>
       <c r="J10" t="n">
         <v>0.981</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9857</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8923</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9347</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9412</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9717</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9302</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9431</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9919</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9926</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9354</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8925999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9943</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9919</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9997</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9931</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9926</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
